--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="304"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="340">
   <si>
     <t>title</t>
   </si>
@@ -695,6 +696,345 @@
   </si>
   <si>
     <t>AM19</t>
+  </si>
+  <si>
+    <t>﻿NU12</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/egypt-ar/</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>للمستخدم الجديد 10% حتى 50 جنيه مصري وللقديم 5% حتى 25 جنيه مصري</t>
+  </si>
+  <si>
+    <t>K78</t>
+  </si>
+  <si>
+    <t>https://www.kiabi.ae/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_34054au2i1.png</t>
+  </si>
+  <si>
+    <t>نون - Noon Coupon</t>
+  </si>
+  <si>
+    <t>كيابي - Kiabi Coupon</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع البرامج</t>
+  </si>
+  <si>
+    <t>SOFT15MAY</t>
+  </si>
+  <si>
+    <t>https://www.anrdoezrs.net/click-101416703-17077622</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416e3gej9.png</t>
+  </si>
+  <si>
+    <t>الحد الأقصى لقيمة السلة 150 يورو , حد الاستخدام للكوبون مرتين فقط</t>
+  </si>
+  <si>
+    <t>خصم 7% على بطاقات الهدايا</t>
+  </si>
+  <si>
+    <t>PRE7MAY</t>
+  </si>
+  <si>
+    <t>https://www.kqzyfj.com/click-101416703-17077612</t>
+  </si>
+  <si>
+    <t>خصم 9% على الألعاب والمحتوى القابل للتنزيل</t>
+  </si>
+  <si>
+    <t>GAME9MAY</t>
+  </si>
+  <si>
+    <t>https://www.kqzyfj.com/click-101416703-17077617</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع البروكسيات</t>
+  </si>
+  <si>
+    <t>SL-Z9PVZ-7VGXYBK</t>
+  </si>
+  <si>
+    <t>https://proxy-sale.com/</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3416xab7f6.png</t>
+  </si>
+  <si>
+    <t>ADM17</t>
+  </si>
+  <si>
+    <t>https://sitpack.com</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3416hr5jz9.png</t>
+  </si>
+  <si>
+    <t>ADMWBGZ3DSL</t>
+  </si>
+  <si>
+    <t>https://bit.ly/4iIKhRm</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416x8i611.png</t>
+  </si>
+  <si>
+    <t>روسيا - أوكرانيا - جورجيا - بولندا - طاجيكستان - البرازيل - أذربيجان - أرمينيا - قيرغيزستان - تركمانستان - بيلاروس - أوزبكستان - مولدوفا - كازاخستان</t>
+  </si>
+  <si>
+    <t>الكوبون صالح للمستخدمين الجدد فقط</t>
+  </si>
+  <si>
+    <t>EKTATR10DH</t>
+  </si>
+  <si>
+    <t>https://ektatraveling.com/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3416jetsb6.png</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>https://www.cartlow.com/</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3416f8emf5.png</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرة واحدة فقط</t>
+  </si>
+  <si>
+    <t>خصم 30% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>NZZVGX</t>
+  </si>
+  <si>
+    <t>https://app.adjust.com/g0wxxkx</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_34169u0218.png</t>
+  </si>
+  <si>
+    <t>خصم 13% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>TAGVYA</t>
+  </si>
+  <si>
+    <t>https://brethsa.com/ar</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_3416ugzz34.png</t>
+  </si>
+  <si>
+    <t>خصم 25% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>YSXMRE</t>
+  </si>
+  <si>
+    <t>https://rakeeb.sa/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_3416d6j0k7.png</t>
+  </si>
+  <si>
+    <t>JVAKLI</t>
+  </si>
+  <si>
+    <t>https://nylwfr.com/ar</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416ipn2s3.png</t>
+  </si>
+  <si>
+    <t>LA63</t>
+  </si>
+  <si>
+    <t>https://labayh.net/</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_34164fepc10.png</t>
+  </si>
+  <si>
+    <t>خصم 5% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA247</t>
+  </si>
+  <si>
+    <t>https://fahis.sa/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3416npadv7.png</t>
+  </si>
+  <si>
+    <t>الخصم والعمولة لخدمة الفحص الشامل 360 فقط</t>
+  </si>
+  <si>
+    <t>LA206</t>
+  </si>
+  <si>
+    <t>https://mahjoz.io/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3416hqxh32.png</t>
+  </si>
+  <si>
+    <t>جميع الدول العربية</t>
+  </si>
+  <si>
+    <t>LA171</t>
+  </si>
+  <si>
+    <t>https://alhawanmarket.com/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_34166v0871.png</t>
+  </si>
+  <si>
+    <t>السعودية ودول الخليج</t>
+  </si>
+  <si>
+    <t>خصم 20% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA213</t>
+  </si>
+  <si>
+    <t>https://taseese.com/</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_3416t2fij10.png</t>
+  </si>
+  <si>
+    <t>https://bouvardiaa.com/</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3416n0fti2.png</t>
+  </si>
+  <si>
+    <t>LA102</t>
+  </si>
+  <si>
+    <t>https://opera-fashion.com/</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3416mr7cr5.png</t>
+  </si>
+  <si>
+    <t>السعودية و دول الخليج</t>
+  </si>
+  <si>
+    <t>DYLPFF</t>
+  </si>
+  <si>
+    <t>https://lusinabaya.com/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3416b6hui1.png</t>
+  </si>
+  <si>
+    <t>ADM03</t>
+  </si>
+  <si>
+    <t>https://openhagen.com/</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3416eaa9j4.png</t>
+  </si>
+  <si>
+    <t>LTLWNK</t>
+  </si>
+  <si>
+    <t>https://sablehcorner.com/</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3416zj7ss8.png</t>
+  </si>
+  <si>
+    <t>ULZYMN</t>
+  </si>
+  <si>
+    <t>https://breehan.com/</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3416zvf1i3.png</t>
+  </si>
+  <si>
+    <t>كينجوين - Kinguin Coupon</t>
+  </si>
+  <si>
+    <t>بروكسي سيل - Coupon Proxy Sale</t>
+  </si>
+  <si>
+    <t>سيت باك - Sitpack Coupon</t>
+  </si>
+  <si>
+    <t>تيكيتس - Tiqets Coupon</t>
+  </si>
+  <si>
+    <t>إكتا - EKTA Coupon</t>
+  </si>
+  <si>
+    <t>كارتلو - Cartlow Coupon</t>
+  </si>
+  <si>
+    <t>آيستوريا - iStoria Coupon</t>
+  </si>
+  <si>
+    <t>بريث - Breth Coupon</t>
+  </si>
+  <si>
+    <t>ركيب - Rakeeb Coupon</t>
+  </si>
+  <si>
+    <t>نيلوفر - Nylwfr Coupon</t>
+  </si>
+  <si>
+    <t>لبيه - Labayh Coupon</t>
+  </si>
+  <si>
+    <t>فاحص - Fahis Coupon</t>
+  </si>
+  <si>
+    <t>محجوز - Mahjoz Coupon</t>
+  </si>
+  <si>
+    <t>الهاون - Alhawan Coupon</t>
+  </si>
+  <si>
+    <t>تأسيس - Taseese Coupon</t>
+  </si>
+  <si>
+    <t>بوفارديا عبايه - Bouvardiaa Abaya Coupon</t>
+  </si>
+  <si>
+    <t>أوبرا للأزياء - Opera Fashion Coupon</t>
+  </si>
+  <si>
+    <t>عبايات لوسين - Lusin Abaya Coupon</t>
+  </si>
+  <si>
+    <t>أوبنهاجن - Openhagen Coupon</t>
+  </si>
+  <si>
+    <t>سابليه - Sableh Coupon</t>
+  </si>
+  <si>
+    <t>بريهان - Breehan Coupon</t>
   </si>
 </sst>
 </file>
@@ -1074,20 +1414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="71.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="106.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="103.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2059,71 +2399,663 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="45.109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>